--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/18_Bitlis_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/18_Bitlis_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2977741-432B-42D4-A36C-2CC08430745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DF5312-3F2C-4446-AA9B-C8DF9CF27E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{7811C259-8C38-4D6B-B86A-B0C5B433A1FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{03A988A2-1991-4915-87DA-1579EF7577E5}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{99F9EAC8-7D3C-4E64-89FE-E8242BBEF233}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{966F0BEA-58EB-4FFF-B181-7B5E735680ED}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4FBFB91D-2F5B-4881-92E6-AA71858B095B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7D783966-3C30-4FDE-93C1-3346E05F0F85}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2CAD338B-746A-4600-BFDE-32BFAE313FCC}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{4382AE47-8684-43E1-96C6-1D45462E6FD2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{284A06F0-6BB2-4CE2-A778-73917F94750F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FF3B7D1A-9554-479D-9426-1F1B170A35A0}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{30D846F9-2F34-494A-B92C-F5831D7D2F19}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E39A8009-214D-45FE-A9E0-BDE40394B161}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{EB6634D5-FA2A-47F5-8637-99B01E8EF6C5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{EA5B62DE-5994-42BF-9E50-F867B9C7B83F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A4A2D059-BFD8-4C69-9B7F-A316027256BD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{45534F2A-EA66-40EC-8DBA-98586EFFB007}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED212EB-BD75-4650-BAFD-023178880826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C4730E-A9E7-462D-8C06-50DB8E531849}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14394A0E-7AC5-4D38-8191-ABBAB2EA2D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FA7248-28C7-42FA-BC55-24D08C4836C4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3615,7 +3615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06940EB0-C8F4-40CE-8A42-AC72B65BC219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963DCD76-120F-402B-8132-D0AD4B022674}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4832,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E2B80-672C-4157-927B-E616449B4CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B686A-D9FF-42CF-9A30-47E2250434BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6047,7 +6047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3FC04C-BADD-42F0-B89D-F51B1D96F95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91EE0CC-B4DC-4AB8-B177-C766E228900C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7244,7 +7244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A1CE92-ACD4-4BFD-AA26-B157A34165DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9079B51-F84E-4837-A9DB-CA9B690B6D94}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
